--- a/rfuse/rfuse_thr_summary.xlsx
+++ b/rfuse/rfuse_thr_summary.xlsx
@@ -453,19 +453,19 @@
         <v>5305</v>
       </c>
       <c r="C3" s="3">
-        <v>11400</v>
+        <v>11100</v>
       </c>
       <c r="D3" s="3">
-        <v>20700</v>
+        <v>20200</v>
       </c>
       <c r="E3" s="3">
-        <v>28200</v>
+        <v>25500</v>
       </c>
       <c r="F3" s="3">
-        <v>29900</v>
+        <v>29200</v>
       </c>
       <c r="G3" s="3">
-        <v>23000</v>
+        <v>27600</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>6531</v>
+        <v>3419</v>
       </c>
       <c r="C8" s="3">
-        <v>7942</v>
+        <v>7956</v>
       </c>
       <c r="D8" s="3">
-        <v>16100</v>
+        <v>16900</v>
       </c>
       <c r="E8" s="3">
-        <v>31000</v>
+        <v>27500</v>
       </c>
       <c r="F8" s="3">
-        <v>210000</v>
+        <v>211000</v>
       </c>
       <c r="G8" s="3">
-        <v>267000</v>
+        <v>274000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -558,19 +558,19 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>7420</v>
+        <v>7013</v>
       </c>
       <c r="C13" s="3">
-        <v>10600</v>
+        <v>11000</v>
       </c>
       <c r="D13" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E13" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F13" s="3">
         <v>12100</v>
-      </c>
-      <c r="E13" s="3">
-        <v>12400</v>
-      </c>
-      <c r="F13" s="3">
-        <v>12600</v>
       </c>
       <c r="G13" s="3">
         <v>12400</v>
@@ -612,22 +612,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>137000</v>
+        <v>135000</v>
       </c>
       <c r="C18" s="3">
-        <v>194000</v>
+        <v>164000</v>
       </c>
       <c r="D18" s="3">
-        <v>193000</v>
+        <v>199000</v>
       </c>
       <c r="E18" s="3">
-        <v>208000</v>
+        <v>202000</v>
       </c>
       <c r="F18" s="3">
         <v>180000</v>
       </c>
       <c r="G18" s="3">
-        <v>160000</v>
+        <v>167000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>2403</v>
+        <v>2752</v>
       </c>
       <c r="C23" s="3">
-        <v>3683</v>
+        <v>3806</v>
       </c>
       <c r="D23" s="3">
-        <v>8274</v>
+        <v>7353</v>
       </c>
       <c r="E23" s="3">
-        <v>8551</v>
+        <v>9525</v>
       </c>
       <c r="F23" s="3">
-        <v>8371</v>
+        <v>8502</v>
       </c>
       <c r="G23" s="3">
-        <v>7046</v>
+        <v>11100</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>78800</v>
+        <v>84500</v>
       </c>
       <c r="C28" s="3">
-        <v>113000</v>
+        <v>128000</v>
       </c>
       <c r="D28" s="3">
-        <v>245000</v>
+        <v>239000</v>
       </c>
       <c r="E28" s="3">
-        <v>277000</v>
+        <v>295000</v>
       </c>
       <c r="F28" s="3">
-        <v>273000</v>
+        <v>297000</v>
       </c>
       <c r="G28" s="3">
-        <v>372000</v>
+        <v>403000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -774,22 +774,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>5626</v>
+        <v>5657</v>
       </c>
       <c r="C33" s="3">
-        <v>7557</v>
+        <v>7340</v>
       </c>
       <c r="D33" s="3">
-        <v>9163</v>
+        <v>8827</v>
       </c>
       <c r="E33" s="3">
-        <v>9298</v>
+        <v>9558</v>
       </c>
       <c r="F33" s="3">
-        <v>8972</v>
+        <v>9351</v>
       </c>
       <c r="G33" s="3">
-        <v>8740</v>
+        <v>8664</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>134000</v>
+        <v>122000</v>
       </c>
       <c r="C38" s="3">
-        <v>168000</v>
+        <v>172000</v>
       </c>
       <c r="D38" s="3">
         <v>212000</v>
       </c>
       <c r="E38" s="3">
-        <v>224000</v>
+        <v>218000</v>
       </c>
       <c r="F38" s="3">
-        <v>196000</v>
+        <v>182000</v>
       </c>
       <c r="G38" s="3">
-        <v>165000</v>
+        <v>161000</v>
       </c>
     </row>
   </sheetData>
